--- a/ML/export_19xlsx.xlsx
+++ b/ML/export_19xlsx.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4746EA70-2D2F-4D1D-AE06-9AF3E6CF34EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EBEE97-C97A-49D8-85BD-B21FC0F22E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>2019թ. հունվար</t>
   </si>
@@ -48,6 +56,12 @@
   </si>
   <si>
     <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
   </si>
 </sst>
 </file>
@@ -83,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +535,30 @@
         <v>233800</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>257700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>225600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B14">
+        <v>167600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
